--- a/extras/datos/trabajadores.xlsx
+++ b/extras/datos/trabajadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tutorias\extras\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797EBEF2-5CAA-4C43-AE96-BE859C5CE403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456ACE6-F888-48D9-8E00-BD72776CB530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF7C4299-7CD4-4C51-ACA6-B8212C8AA494}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF7C4299-7CD4-4C51-ACA6-B8212C8AA494}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -423,22 +423,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069C495F-34DC-40C4-9C95-3AFAFDBB5847}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="127.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="127.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>21147</v>
       </c>
@@ -478,8 +478,12 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G34" si="0">CONCATENATE("INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('",A2,"',",B2,",'",C2,"',",D2,",'",E2,"','",F2,"');")</f>
+        <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('21147',56,'Docentes',48193,'21147','Activo');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>18828</v>
       </c>
@@ -500,11 +504,11 @@
         <v>7</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G34" si="0">CONCATENATE("INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('",A3,"',",B3,",'",C3,"',",D3,",'",E3,"','",F3,"');")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('18828',57,'Docentes',48193,'18828','Activo');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>107639</v>
       </c>
@@ -529,7 +533,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('107639',58,'Docentes',48193,'107639','Activo');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>71179</v>
       </c>
@@ -554,7 +558,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('71179',59,'Docentes',48193,'71179','Activo');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>47818</v>
       </c>
@@ -579,7 +583,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('47818',60,'Docentes',48193,'47818','Activo');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>96451</v>
       </c>
@@ -604,7 +608,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('96451',61,'Docentes',48193,'96451','Activo');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8026</v>
       </c>
@@ -629,7 +633,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('8026',62,'Docentes',48193,'8026','Activo');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>107776</v>
       </c>
@@ -654,7 +658,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('107776',63,'Docentes',48193,'107776','Activo');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43231</v>
       </c>
@@ -679,7 +683,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('43231',64,'Docentes',48193,'43231','Activo');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>93510</v>
       </c>
@@ -704,7 +708,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('93510',65,'Docentes',48193,'93510','Activo');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>81823</v>
       </c>
@@ -729,7 +733,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('81823',66,'Docentes',48193,'81823','Activo');</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1114</v>
       </c>
@@ -754,7 +758,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('1114',67,'Coordinador De Carrera',48193,'1114','Activo');</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>19703</v>
       </c>
@@ -779,7 +783,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('19703',68,'Docentes',48193,'19703','Activo');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>96850</v>
       </c>
@@ -804,7 +808,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('96850',69,'Docentes',48193,'96850','Activo');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>103910</v>
       </c>
@@ -829,7 +833,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('103910',70,'Docentes',48193,'103910','Activo');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>69113</v>
       </c>
@@ -854,7 +858,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('69113',71,'Docentes',48193,'69113','Activo');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2265</v>
       </c>
@@ -879,7 +883,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('2265',72,'Docentes',48193,'2265','Activo');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>85748</v>
       </c>
@@ -904,7 +908,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('85748',73,'Docentes',48193,'85748','Activo');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14636</v>
       </c>
@@ -929,7 +933,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('14636',74,'Docentes',48193,'14636','Activo');</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>96163</v>
       </c>
@@ -954,7 +958,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('96163',75,'Docentes',48193,'96163','Activo');</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>85067</v>
       </c>
@@ -979,7 +983,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('85067',76,'Docentes',48193,'85067','Activo');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45957</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('45957',77,'Docentes',48193,'45957','Activo');</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>52000</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('52000',78,'Docentes',48193,'52000','Activo');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>74899</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('74899',79,'Docentes',48193,'74899','Activo');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45356</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('45356',80,'Docentes',48193,'45356','Activo');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>106482</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('106482',81,'Docentes',48193,'106482','Activo');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>78949</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('78949',82,'Coordinador De Area',48193,'78949','Inactivo');</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>90699</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('90699',83,'Docentes',48193,'90699','Activo');</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29956</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('29956',84,'Docentes',48193,'29956','Activo');</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>38721</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('38721',85,'Docentes',48193,'38721','Activo');</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>59341</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('59341',86,'Docentes',48193,'59341','Activo');</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>99173</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>INSERT INTO trabajador (Matricula, Persona_idPersona,Roll,Areas_idAreas, contraseña, Estado) values ('99173',87,'Docentes',48193,'99173','Activo');</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>22406</v>
       </c>
